--- a/SDB/kocw data/featured data/university.xlsx
+++ b/SDB/kocw data/featured data/university.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>대학소재지(시/도)</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>사립/국립 구분</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -459,6 +464,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -474,6 +484,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -489,6 +504,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -504,6 +524,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -519,6 +544,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -534,6 +564,11 @@
           <t>대전광역시</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -549,6 +584,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -564,6 +604,11 @@
           <t>경상북도</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -579,6 +624,11 @@
           <t>전라북도</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -594,6 +644,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -609,6 +664,11 @@
           <t>대전광역시</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -624,6 +684,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -639,6 +704,11 @@
           <t>경상북도</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -654,6 +724,11 @@
           <t>충청북도</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -669,6 +744,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -684,6 +764,11 @@
           <t>부산광역시</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -699,6 +784,11 @@
           <t>경상남도</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -714,6 +804,11 @@
           <t>충청북도</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -729,6 +824,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -744,6 +844,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -759,6 +864,11 @@
           <t>대전광역시</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -774,6 +884,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -789,6 +904,11 @@
           <t>대전광역시</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -804,6 +924,11 @@
           <t>전라북도</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -819,6 +944,11 @@
           <t>울산광역시</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -834,6 +964,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -849,6 +984,11 @@
           <t>광주광역시</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -864,6 +1004,11 @@
           <t>대전광역시</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -879,6 +1024,11 @@
           <t>경상북도</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -894,6 +1044,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -909,6 +1064,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -924,6 +1084,11 @@
           <t>전라남도</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -939,6 +1104,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -954,6 +1124,11 @@
           <t>충청남도</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -969,6 +1144,11 @@
           <t>부산광역시</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -984,6 +1164,11 @@
           <t>광주광역시</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -999,6 +1184,11 @@
           <t>부산광역시</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1014,6 +1204,11 @@
           <t>광주광역시</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1029,6 +1224,11 @@
           <t>부산광역시</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1044,6 +1244,11 @@
           <t>대구광역시</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1059,6 +1264,11 @@
           <t>광주광역시</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1074,6 +1284,11 @@
           <t>광주광역시</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1089,6 +1304,11 @@
           <t>충청남도</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1104,6 +1324,11 @@
           <t>강원특별자치도</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1119,6 +1344,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1134,6 +1364,11 @@
           <t>대구광역시</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1149,6 +1384,11 @@
           <t>부산광역시</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1164,6 +1404,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1179,6 +1424,11 @@
           <t>부산광역시</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1194,6 +1444,11 @@
           <t>충청남도</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1209,6 +1464,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1224,6 +1484,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1239,6 +1504,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1254,6 +1524,11 @@
           <t>인천광역시</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1269,6 +1544,11 @@
           <t>강원특별자치도</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1284,6 +1564,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1299,6 +1584,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1314,6 +1604,11 @@
           <t>경상남도</t>
         </is>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1329,6 +1624,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1344,6 +1644,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1359,6 +1664,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1374,6 +1684,11 @@
           <t>울산광역시</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1389,6 +1704,11 @@
           <t>부산광역시</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1404,6 +1724,11 @@
           <t>대전광역시</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1419,6 +1744,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1434,6 +1764,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1449,6 +1784,11 @@
           <t>경상북도</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1464,6 +1804,11 @@
           <t>충청북도</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1479,6 +1824,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1494,6 +1844,11 @@
           <t>경상북도</t>
         </is>
       </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1509,6 +1864,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1524,6 +1884,11 @@
           <t>경상남도</t>
         </is>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1539,6 +1904,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -1554,6 +1924,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -1569,6 +1944,11 @@
           <t>충청남도</t>
         </is>
       </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -1584,6 +1964,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -1599,6 +1984,11 @@
           <t>대구광역시</t>
         </is>
       </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -1614,6 +2004,11 @@
           <t>부산광역시</t>
         </is>
       </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -1629,6 +2024,11 @@
           <t>광주광역시</t>
         </is>
       </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -1644,6 +2044,11 @@
           <t>충청북도</t>
         </is>
       </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -1659,6 +2064,11 @@
           <t>경상남도</t>
         </is>
       </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -1674,6 +2084,11 @@
           <t>강원특별자치도</t>
         </is>
       </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -1689,6 +2104,11 @@
           <t>대전광역시</t>
         </is>
       </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -1704,6 +2124,11 @@
           <t>부산광역시</t>
         </is>
       </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -1719,6 +2144,11 @@
           <t>전라북도</t>
         </is>
       </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -1734,6 +2164,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -1749,6 +2184,11 @@
           <t>경상북도</t>
         </is>
       </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -1764,6 +2204,11 @@
           <t>경상북도</t>
         </is>
       </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -1779,6 +2224,11 @@
           <t>경상남도</t>
         </is>
       </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -1794,6 +2244,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -1809,6 +2264,11 @@
           <t>충청북도</t>
         </is>
       </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -1824,6 +2284,11 @@
           <t>광주광역시</t>
         </is>
       </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -1839,6 +2304,11 @@
           <t>충청북도</t>
         </is>
       </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -1854,6 +2324,11 @@
           <t>전라남도</t>
         </is>
       </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -1869,6 +2344,11 @@
           <t>강원특별자치도</t>
         </is>
       </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -1884,6 +2364,11 @@
           <t>광주광역시</t>
         </is>
       </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -1899,6 +2384,11 @@
           <t>대전광역시</t>
         </is>
       </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -1914,6 +2404,11 @@
           <t>부산광역시</t>
         </is>
       </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -1929,6 +2424,11 @@
           <t>충청남도</t>
         </is>
       </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -1944,6 +2444,11 @@
           <t>충청남도</t>
         </is>
       </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -1959,6 +2464,11 @@
           <t>울산광역시</t>
         </is>
       </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -1974,6 +2484,11 @@
           <t>전라북도</t>
         </is>
       </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -1989,6 +2504,11 @@
           <t>충청남도</t>
         </is>
       </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2004,6 +2524,11 @@
           <t>인천광역시</t>
         </is>
       </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -2019,6 +2544,11 @@
           <t>경상남도</t>
         </is>
       </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -2034,6 +2564,11 @@
           <t>경상북도</t>
         </is>
       </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -2049,6 +2584,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -2064,6 +2604,11 @@
           <t>강원특별자치도</t>
         </is>
       </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -2079,6 +2624,11 @@
           <t>부산광역시</t>
         </is>
       </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -2094,6 +2644,11 @@
           <t>제주특별자치도</t>
         </is>
       </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -2109,6 +2664,11 @@
           <t>대전광역시</t>
         </is>
       </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -2124,6 +2684,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -2139,6 +2704,11 @@
           <t>부산광역시</t>
         </is>
       </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -2154,6 +2724,11 @@
           <t>경상북도</t>
         </is>
       </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -2169,6 +2744,11 @@
           <t>충청남도</t>
         </is>
       </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -2184,6 +2764,11 @@
           <t>충청남도</t>
         </is>
       </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -2199,6 +2784,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -2214,6 +2804,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -2229,6 +2824,11 @@
           <t>부산광역시</t>
         </is>
       </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -2244,6 +2844,11 @@
           <t>전라북도</t>
         </is>
       </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -2259,6 +2864,11 @@
           <t>경상북도</t>
         </is>
       </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -2274,6 +2884,11 @@
           <t>대전광역시</t>
         </is>
       </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -2289,6 +2904,11 @@
           <t>충청남도</t>
         </is>
       </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -2304,6 +2924,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -2319,6 +2944,11 @@
           <t>경상북도</t>
         </is>
       </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -2334,6 +2964,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -2349,6 +2984,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -2364,6 +3004,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -2379,6 +3024,11 @@
           <t>충청북도</t>
         </is>
       </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -2394,6 +3044,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -2409,6 +3064,11 @@
           <t>인천광역시</t>
         </is>
       </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -2424,6 +3084,11 @@
           <t>충청북도</t>
         </is>
       </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -2439,6 +3104,11 @@
           <t>경상북도</t>
         </is>
       </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -2454,6 +3124,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -2469,6 +3144,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -2484,6 +3164,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -2499,6 +3184,11 @@
           <t>경상남도</t>
         </is>
       </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -2514,6 +3204,11 @@
           <t>전라남도</t>
         </is>
       </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -2529,6 +3224,11 @@
           <t>대전광역시</t>
         </is>
       </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -2544,6 +3244,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -2559,6 +3264,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -2574,6 +3284,11 @@
           <t>충청북도</t>
         </is>
       </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -2589,6 +3304,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -2604,6 +3324,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -2619,6 +3344,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -2634,6 +3364,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -2649,6 +3384,11 @@
           <t>대구광역시</t>
         </is>
       </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -2664,6 +3404,11 @@
           <t>충청북도</t>
         </is>
       </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -2679,6 +3424,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -2694,6 +3444,11 @@
           <t>경상남도</t>
         </is>
       </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -2709,6 +3464,11 @@
           <t>충청남도</t>
         </is>
       </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -2724,6 +3484,11 @@
           <t>전라남도</t>
         </is>
       </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -2739,6 +3504,11 @@
           <t>충청남도</t>
         </is>
       </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -2754,6 +3524,11 @@
           <t>충청북도</t>
         </is>
       </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -2769,6 +3544,11 @@
           <t>충청북도</t>
         </is>
       </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -2784,6 +3564,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -2799,6 +3584,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -2814,6 +3604,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -2829,6 +3624,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -2844,6 +3644,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -2859,6 +3664,11 @@
           <t>경상북도</t>
         </is>
       </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -2874,6 +3684,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -2889,6 +3704,11 @@
           <t>전라북도</t>
         </is>
       </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -2904,6 +3724,11 @@
           <t>대전광역시</t>
         </is>
       </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -2919,6 +3744,11 @@
           <t>충청남도</t>
         </is>
       </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -2934,6 +3764,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -2949,6 +3784,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -2964,6 +3804,11 @@
           <t>강원특별자치도</t>
         </is>
       </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -2979,6 +3824,11 @@
           <t>전라남도</t>
         </is>
       </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -2994,6 +3844,11 @@
           <t>경상북도</t>
         </is>
       </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -3009,6 +3864,11 @@
           <t>경상북도</t>
         </is>
       </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -3024,6 +3884,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -3039,6 +3904,11 @@
           <t>부산광역시</t>
         </is>
       </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -3054,6 +3924,11 @@
           <t>전라남도</t>
         </is>
       </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -3069,6 +3944,11 @@
           <t>부산광역시</t>
         </is>
       </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -3084,6 +3964,11 @@
           <t>전라북도</t>
         </is>
       </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -3099,6 +3984,11 @@
           <t>전라북도</t>
         </is>
       </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -3114,6 +4004,11 @@
           <t>경상북도</t>
         </is>
       </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -3129,6 +4024,11 @@
           <t>전라북도</t>
         </is>
       </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -3144,6 +4044,11 @@
           <t>충청남도</t>
         </is>
       </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -3159,6 +4064,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -3174,6 +4084,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>국립</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -3189,6 +4104,11 @@
           <t>서울특별시</t>
         </is>
       </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -3204,6 +4124,11 @@
           <t>경기도</t>
         </is>
       </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -3219,6 +4144,11 @@
           <t>경상북도</t>
         </is>
       </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>사립</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -3232,6 +4162,11 @@
       <c r="C187" t="inlineStr">
         <is>
           <t>강원특별자치도</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>사립</t>
         </is>
       </c>
     </row>
